--- a/industry_FE.xlsx
+++ b/industry_FE.xlsx
@@ -525,10 +525,10 @@
         <v>2025</v>
       </c>
       <c r="D8">
-        <v>0.3246116329378</v>
+        <v>0.3246116329376</v>
       </c>
       <c r="E8">
-        <v>14.86438065070194</v>
+        <v>14.86437906365555</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         <v>2030</v>
       </c>
       <c r="D9">
-        <v>0.4517378085747</v>
+        <v>0.4517377885739</v>
       </c>
       <c r="E9">
-        <v>15.46665363760027</v>
+        <v>15.46665715260672</v>
       </c>
     </row>
     <row r="10">
@@ -567,10 +567,10 @@
         <v>2035</v>
       </c>
       <c r="D10">
-        <v>0.6078412351070001</v>
+        <v>0.6078411351030001</v>
       </c>
       <c r="E10">
-        <v>16.036175921744</v>
+        <v>16.03618862334392</v>
       </c>
     </row>
     <row r="11">
@@ -588,10 +588,10 @@
         <v>2040</v>
       </c>
       <c r="D11">
-        <v>0.785065672291</v>
+        <v>0.7850654722839999</v>
       </c>
       <c r="E11">
-        <v>16.54944175497167</v>
+        <v>16.54943930223894</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>2045</v>
       </c>
       <c r="D12">
-        <v>0.98134037411</v>
+        <v>0.981332073878</v>
       </c>
       <c r="E12">
-        <v>17.11113684926984</v>
+        <v>17.11169366839714</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         <v>2050</v>
       </c>
       <c r="D13">
-        <v>1.14644107637075</v>
+        <v>1.14486463855536</v>
       </c>
       <c r="E13">
-        <v>17.18860033502267</v>
+        <v>17.16730054098902</v>
       </c>
     </row>
     <row r="14">
@@ -651,10 +651,10 @@
         <v>2055</v>
       </c>
       <c r="D14">
-        <v>0.9381122509188999</v>
+        <v>0.9372769440776001</v>
       </c>
       <c r="E14">
-        <v>12.3044813394483</v>
+        <v>12.29427500678824</v>
       </c>
     </row>
     <row r="15">
@@ -672,10 +672,10 @@
         <v>2060</v>
       </c>
       <c r="D15">
-        <v>0.57195036424057</v>
+        <v>0.5719124740818401</v>
       </c>
       <c r="E15">
-        <v>6.715711238266916</v>
+        <v>6.713692516697662</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +693,10 @@
         <v>2065</v>
       </c>
       <c r="D16">
-        <v>0.126446566619234</v>
+        <v>0.12653464685916</v>
       </c>
       <c r="E16">
-        <v>1.323870204650935</v>
+        <v>1.324484615169655</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>2070</v>
       </c>
       <c r="D17">
-        <v>0.002351562615527</v>
+        <v>0.002351668415646</v>
       </c>
       <c r="E17">
-        <v>0.02351519617055443</v>
+        <v>0.02351344961321238</v>
       </c>
     </row>
     <row r="18">
@@ -864,7 +864,7 @@
         <v>0.5490842</v>
       </c>
       <c r="E24">
-        <v>25.14326576721934</v>
+        <v>25.14326308272815</v>
       </c>
     </row>
     <row r="25">
@@ -882,10 +882,10 @@
         <v>2030</v>
       </c>
       <c r="D25">
-        <v>0.7285254</v>
+        <v>0.7285265</v>
       </c>
       <c r="E25">
-        <v>24.94334061509249</v>
+        <v>24.94338505012012</v>
       </c>
     </row>
     <row r="26">
@@ -903,10 +903,10 @@
         <v>2035</v>
       </c>
       <c r="D26">
-        <v>0.9377573</v>
+        <v>0.9377584</v>
       </c>
       <c r="E26">
-        <v>24.74008041269605</v>
+        <v>24.74013309904892</v>
       </c>
     </row>
     <row r="27">
@@ -927,7 +927,7 @@
         <v>1.1677779</v>
       </c>
       <c r="E27">
-        <v>24.61714098693841</v>
+        <v>24.6171436100998</v>
       </c>
     </row>
     <row r="28">
@@ -945,10 +945,10 @@
         <v>2045</v>
       </c>
       <c r="D28">
-        <v>1.3388513</v>
+        <v>1.3382264</v>
       </c>
       <c r="E28">
-        <v>23.34487443859606</v>
+        <v>23.33493505951458</v>
       </c>
     </row>
     <row r="29">
@@ -966,10 +966,10 @@
         <v>2050</v>
       </c>
       <c r="D29">
-        <v>0.80092594</v>
+        <v>0.7921636599999999</v>
       </c>
       <c r="E29">
-        <v>12.00828909950909</v>
+        <v>11.87853233551701</v>
       </c>
     </row>
     <row r="30">
@@ -987,10 +987,10 @@
         <v>2055</v>
       </c>
       <c r="D30">
-        <v>0.258218554304</v>
+        <v>0.257795580036</v>
       </c>
       <c r="E30">
-        <v>3.386849899700924</v>
+        <v>3.381508290077674</v>
       </c>
     </row>
     <row r="31">
@@ -1008,10 +1008,10 @@
         <v>2060</v>
       </c>
       <c r="D31">
-        <v>0.1578427265329</v>
+        <v>0.1578354850136</v>
       </c>
       <c r="E31">
-        <v>1.853353435421236</v>
+        <v>1.852834065748173</v>
       </c>
     </row>
     <row r="32">
@@ -1029,10 +1029,10 @@
         <v>2065</v>
       </c>
       <c r="D32">
-        <v>0.113497732842816</v>
+        <v>0.113505624001577</v>
       </c>
       <c r="E32">
-        <v>1.188298510773327</v>
+        <v>1.188105048356068</v>
       </c>
     </row>
     <row r="33">
@@ -1050,10 +1050,10 @@
         <v>2070</v>
       </c>
       <c r="D33">
-        <v>0.074404256335977</v>
+        <v>0.074406258796977</v>
       </c>
       <c r="E33">
-        <v>0.7440289584943133</v>
+        <v>0.7439602477502173</v>
       </c>
     </row>
     <row r="34">
@@ -1197,10 +1197,10 @@
         <v>2025</v>
       </c>
       <c r="D40">
-        <v>0.3609997953</v>
+        <v>0.3609995853</v>
       </c>
       <c r="E40">
-        <v>16.5306410112323</v>
+        <v>16.53062963012533</v>
       </c>
     </row>
     <row r="41">
@@ -1218,10 +1218,10 @@
         <v>2030</v>
       </c>
       <c r="D41">
-        <v>0.54804575163</v>
+        <v>0.54804435163</v>
       </c>
       <c r="E41">
-        <v>18.7640566211713</v>
+        <v>18.7640137829585</v>
       </c>
     </row>
     <row r="42">
@@ -1239,10 +1239,10 @@
         <v>2035</v>
       </c>
       <c r="D42">
-        <v>0.71284605934</v>
+        <v>0.71284145934</v>
       </c>
       <c r="E42">
-        <v>18.80643193067663</v>
+        <v>18.80632856244409</v>
       </c>
     </row>
     <row r="43">
@@ -1260,10 +1260,10 @@
         <v>2040</v>
       </c>
       <c r="D43">
-        <v>0.8886763276900001</v>
+        <v>0.88867772769</v>
       </c>
       <c r="E43">
-        <v>18.73358833944316</v>
+        <v>18.73361984812514</v>
       </c>
     </row>
     <row r="44">
@@ -1281,10 +1281,10 @@
         <v>2045</v>
       </c>
       <c r="D44">
-        <v>1.1091882485</v>
+        <v>1.1095251486</v>
       </c>
       <c r="E44">
-        <v>19.34035571388607</v>
+        <v>19.3470232611457</v>
       </c>
     </row>
     <row r="45">
@@ -1302,10 +1302,10 @@
         <v>2050</v>
       </c>
       <c r="D45">
-        <v>1.7254203218</v>
+        <v>1.7280382288</v>
       </c>
       <c r="E45">
-        <v>25.86924084684086</v>
+        <v>25.91201668833224</v>
       </c>
     </row>
     <row r="46">
@@ -1323,10 +1323,10 @@
         <v>2055</v>
       </c>
       <c r="D46">
-        <v>2.915453192</v>
+        <v>2.9166655008</v>
       </c>
       <c r="E46">
-        <v>38.23970890675451</v>
+        <v>38.25794285907255</v>
       </c>
     </row>
     <row r="47">
@@ -1344,10 +1344,10 @@
         <v>2060</v>
       </c>
       <c r="D47">
-        <v>4.4326616014</v>
+        <v>4.4297856025</v>
       </c>
       <c r="E47">
-        <v>52.04730548861962</v>
+        <v>52.00134600635325</v>
       </c>
     </row>
     <row r="48">
@@ -1365,10 +1365,10 @@
         <v>2065</v>
       </c>
       <c r="D48">
-        <v>6.9424133253</v>
+        <v>6.9407283021</v>
       </c>
       <c r="E48">
-        <v>72.6856758191982</v>
+        <v>72.65115193656203</v>
       </c>
     </row>
     <row r="49">
@@ -1386,10 +1386,10 @@
         <v>2070</v>
       </c>
       <c r="D49">
-        <v>8.344946199999999</v>
+        <v>8.344381200000001</v>
       </c>
       <c r="E49">
-        <v>83.44793612129512</v>
+        <v>83.43233493049206</v>
       </c>
     </row>
     <row r="50">
@@ -1536,7 +1536,7 @@
         <v>0.43561574</v>
       </c>
       <c r="E56">
-        <v>19.94740027705026</v>
+        <v>19.9473981473102</v>
       </c>
     </row>
     <row r="57">
@@ -1557,7 +1557,7 @@
         <v>0.5661666</v>
       </c>
       <c r="E57">
-        <v>19.384480415767</v>
+        <v>19.3844856794054</v>
       </c>
     </row>
     <row r="58">
@@ -1575,10 +1575,10 @@
         <v>2035</v>
       </c>
       <c r="D58">
-        <v>0.7153292</v>
+        <v>0.7153291000000001</v>
       </c>
       <c r="E58">
-        <v>18.8719425906357</v>
+        <v>18.87195800498601</v>
       </c>
     </row>
     <row r="59">
@@ -1596,10 +1596,10 @@
         <v>2040</v>
       </c>
       <c r="D59">
-        <v>0.8737894000000001</v>
+        <v>0.8737892</v>
       </c>
       <c r="E59">
-        <v>18.41976702307205</v>
+        <v>18.41976476978561</v>
       </c>
     </row>
     <row r="60">
@@ -1617,10 +1617,10 @@
         <v>2045</v>
       </c>
       <c r="D60">
-        <v>1.0446396</v>
+        <v>1.0446783</v>
       </c>
       <c r="E60">
-        <v>18.21485350582639</v>
+        <v>18.21627512996612</v>
       </c>
     </row>
     <row r="61">
@@ -1638,10 +1638,10 @@
         <v>2050</v>
       </c>
       <c r="D61">
-        <v>1.4516212</v>
+        <v>1.4576164</v>
       </c>
       <c r="E61">
-        <v>21.7641683981122</v>
+        <v>21.85702830672629</v>
       </c>
     </row>
     <row r="62">
@@ -1659,10 +1659,10 @@
         <v>2055</v>
       </c>
       <c r="D62">
-        <v>1.7741102</v>
+        <v>1.7737729</v>
       </c>
       <c r="E62">
-        <v>23.26960961083542</v>
+        <v>23.26660435849024</v>
       </c>
     </row>
     <row r="63">
@@ -1680,10 +1680,10 @@
         <v>2060</v>
       </c>
       <c r="D63">
-        <v>1.71223915</v>
+        <v>1.71219162</v>
       </c>
       <c r="E63">
-        <v>20.10472310394228</v>
+        <v>20.09945330323658</v>
       </c>
     </row>
     <row r="64">
@@ -1701,10 +1701,10 @@
         <v>2065</v>
       </c>
       <c r="D64">
-        <v>1.133322651</v>
+        <v>1.133512816</v>
       </c>
       <c r="E64">
-        <v>11.86566096676196</v>
+        <v>11.86489489760606</v>
       </c>
     </row>
     <row r="65">
@@ -1722,10 +1722,10 @@
         <v>2070</v>
       </c>
       <c r="D65">
-        <v>0.6282834175954001</v>
+        <v>0.6283005445604</v>
       </c>
       <c r="E65">
-        <v>6.282719293932648</v>
+        <v>6.282141265403101</v>
       </c>
     </row>
     <row r="66">
@@ -1764,10 +1764,10 @@
         <v>2025</v>
       </c>
       <c r="D67">
-        <v>0.01111063456145</v>
+        <v>0.01111077768356</v>
       </c>
       <c r="E67">
-        <v>0.5087701260043356</v>
+        <v>0.5087766254273096</v>
       </c>
     </row>
     <row r="68">
@@ -1785,10 +1785,10 @@
         <v>2030</v>
       </c>
       <c r="D68">
-        <v>0.02738929743322</v>
+        <v>0.02738860432517</v>
       </c>
       <c r="E68">
-        <v>0.937758072793186</v>
+        <v>0.9377345967073273</v>
       </c>
     </row>
     <row r="69">
@@ -1806,10 +1806,10 @@
         <v>2035</v>
       </c>
       <c r="D69">
-        <v>0.0493655058007</v>
+        <v>0.0493664537218</v>
       </c>
       <c r="E69">
-        <v>1.302369582324479</v>
+        <v>1.302395836395996</v>
       </c>
     </row>
     <row r="70">
@@ -1827,10 +1827,10 @@
         <v>2040</v>
       </c>
       <c r="D70">
-        <v>0.07707483892020001</v>
+        <v>0.07707470341020001</v>
       </c>
       <c r="E70">
-        <v>1.624762873354712</v>
+        <v>1.624760189891197</v>
       </c>
     </row>
     <row r="71">
@@ -1848,10 +1848,10 @@
         <v>2045</v>
       </c>
       <c r="D71">
-        <v>0.113748919043</v>
+        <v>0.113768073759</v>
       </c>
       <c r="E71">
-        <v>1.983382495565313</v>
+        <v>1.983797818524825</v>
       </c>
     </row>
     <row r="72">
@@ -1869,10 +1869,10 @@
         <v>2050</v>
       </c>
       <c r="D72">
-        <v>0.1881575421222</v>
+        <v>0.1891077581386</v>
       </c>
       <c r="E72">
-        <v>2.821047551608126</v>
+        <v>2.835679965357778</v>
       </c>
     </row>
     <row r="73">
@@ -1890,10 +1890,10 @@
         <v>2055</v>
       </c>
       <c r="D73">
-        <v>0.310020553261</v>
+        <v>0.310652046411</v>
       </c>
       <c r="E73">
-        <v>4.066296020235203</v>
+        <v>4.074827311320454</v>
       </c>
     </row>
     <row r="74">
@@ -1911,10 +1911,10 @@
         <v>2060</v>
       </c>
       <c r="D74">
-        <v>0.530728852406</v>
+        <v>0.535774150178</v>
       </c>
       <c r="E74">
-        <v>6.231697611221938</v>
+        <v>6.289463975173512</v>
       </c>
     </row>
     <row r="75">
@@ -1932,10 +1932,10 @@
         <v>2065</v>
       </c>
       <c r="D75">
-        <v>0.9154337209669999</v>
+        <v>0.918857630773</v>
       </c>
       <c r="E75">
-        <v>9.584407547975312</v>
+        <v>9.618020247408445</v>
       </c>
     </row>
     <row r="76">
@@ -1953,10 +1953,10 @@
         <v>2070</v>
       </c>
       <c r="D76">
-        <v>0.933904708508</v>
+        <v>0.935642729312</v>
       </c>
       <c r="E76">
-        <v>9.338876320011785</v>
+        <v>9.35514038683162</v>
       </c>
     </row>
     <row r="77">
@@ -2100,10 +2100,10 @@
         <v>2025</v>
       </c>
       <c r="D83">
-        <v>0.50240011913</v>
+        <v>0.50240041917</v>
       </c>
       <c r="E83">
-        <v>23.00554216779184</v>
+        <v>23.00555345075347</v>
       </c>
     </row>
     <row r="84">
@@ -2121,10 +2121,10 @@
         <v>2030</v>
       </c>
       <c r="D84">
-        <v>0.59885619269</v>
+        <v>0.59885641271</v>
       </c>
       <c r="E84">
-        <v>20.50371063757575</v>
+        <v>20.50372373820194</v>
       </c>
     </row>
     <row r="85">
@@ -2142,10 +2142,10 @@
         <v>2035</v>
       </c>
       <c r="D85">
-        <v>0.76729825839</v>
+        <v>0.76729738461</v>
       </c>
       <c r="E85">
-        <v>20.24299956192315</v>
+        <v>20.24299587378106</v>
       </c>
     </row>
     <row r="86">
@@ -2163,10 +2163,10 @@
         <v>2040</v>
       </c>
       <c r="D86">
-        <v>0.9513751003200001</v>
+        <v>0.9513737303500001</v>
       </c>
       <c r="E86">
-        <v>20.05529902222</v>
+        <v>20.05527227985931</v>
       </c>
     </row>
     <row r="87">
@@ -2184,10 +2184,10 @@
         <v>2045</v>
       </c>
       <c r="D87">
-        <v>1.1473290142</v>
+        <v>1.1473323318</v>
       </c>
       <c r="E87">
-        <v>20.00539699685633</v>
+        <v>20.00627506245164</v>
       </c>
     </row>
     <row r="88">
@@ -2205,10 +2205,10 @@
         <v>2050</v>
       </c>
       <c r="D88">
-        <v>1.357209550215</v>
+        <v>1.357077467783</v>
       </c>
       <c r="E88">
-        <v>20.34865376890705</v>
+        <v>20.34944216307766</v>
       </c>
     </row>
     <row r="89">
@@ -2226,10 +2226,10 @@
         <v>2055</v>
       </c>
       <c r="D89">
-        <v>1.42823636193481</v>
+        <v>1.427523204233419</v>
       </c>
       <c r="E89">
-        <v>18.73305422302565</v>
+        <v>18.72484217425084</v>
       </c>
     </row>
     <row r="90">
@@ -2247,10 +2247,10 @@
         <v>2060</v>
       </c>
       <c r="D90">
-        <v>1.1111788082</v>
+        <v>1.1110986329</v>
       </c>
       <c r="E90">
-        <v>13.047209122528</v>
+        <v>13.04321013279084</v>
       </c>
     </row>
     <row r="91">
@@ -2268,10 +2268,10 @@
         <v>2065</v>
       </c>
       <c r="D91">
-        <v>0.32016725237</v>
+        <v>0.32036167102</v>
       </c>
       <c r="E91">
-        <v>3.352086950640268</v>
+        <v>3.353343254897746</v>
       </c>
     </row>
     <row r="92">
@@ -2289,10 +2289,10 @@
         <v>2070</v>
       </c>
       <c r="D92">
-        <v>0.016292708922774</v>
+        <v>0.016293213000032</v>
       </c>
       <c r="E92">
-        <v>0.1629241100955809</v>
+        <v>0.16290971990979</v>
       </c>
     </row>
     <row r="93">
@@ -2436,10 +2436,10 @@
         <v>2025</v>
       </c>
       <c r="D99">
-        <v>0.3302545513058</v>
+        <v>0.3302545413057</v>
       </c>
       <c r="E99">
-        <v>14.8773420304693</v>
+        <v>14.87734352813148</v>
       </c>
     </row>
     <row r="100">
@@ -2457,10 +2457,10 @@
         <v>2030</v>
       </c>
       <c r="D100">
-        <v>0.4672289512596</v>
+        <v>0.4672289212625</v>
       </c>
       <c r="E100">
-        <v>15.54263512455039</v>
+        <v>15.54263328036865</v>
       </c>
     </row>
     <row r="101">
@@ -2478,10 +2478,10 @@
         <v>2035</v>
       </c>
       <c r="D101">
-        <v>0.6376699729540001</v>
+        <v>0.637669872944</v>
       </c>
       <c r="E101">
-        <v>16.15961577292368</v>
+        <v>16.15961717334203</v>
       </c>
     </row>
     <row r="102">
@@ -2499,10 +2499,10 @@
         <v>2040</v>
       </c>
       <c r="D102">
-        <v>0.835285688749</v>
+        <v>0.835285388737</v>
       </c>
       <c r="E102">
-        <v>16.72478471195381</v>
+        <v>16.72478141252263</v>
       </c>
     </row>
     <row r="103">
@@ -2520,10 +2520,10 @@
         <v>2045</v>
       </c>
       <c r="D103">
-        <v>1.058970842862</v>
+        <v>1.058970642852</v>
       </c>
       <c r="E103">
-        <v>17.25739595714006</v>
+        <v>17.25739769498924</v>
       </c>
     </row>
     <row r="104">
@@ -2541,10 +2541,10 @@
         <v>2050</v>
       </c>
       <c r="D104">
-        <v>1.302173075594</v>
+        <v>1.302172875571</v>
       </c>
       <c r="E104">
-        <v>17.74756040921413</v>
+        <v>17.74755149476518</v>
       </c>
     </row>
     <row r="105">
@@ -2562,10 +2562,10 @@
         <v>2055</v>
       </c>
       <c r="D105">
-        <v>1.559423008234</v>
+        <v>1.559422608215</v>
       </c>
       <c r="E105">
-        <v>18.19428620429243</v>
+        <v>18.19427848081723</v>
       </c>
     </row>
     <row r="106">
@@ -2583,10 +2583,10 @@
         <v>2060</v>
       </c>
       <c r="D106">
-        <v>1.806793001786</v>
+        <v>1.806810402268</v>
       </c>
       <c r="E106">
-        <v>18.61150425524163</v>
+        <v>18.6116886623619</v>
       </c>
     </row>
     <row r="107">
@@ -2604,10 +2604,10 @@
         <v>2065</v>
       </c>
       <c r="D107">
-        <v>2.041357448083</v>
+        <v>2.041368848185</v>
       </c>
       <c r="E107">
-        <v>19.01720901215898</v>
+        <v>19.0173149619076</v>
       </c>
     </row>
     <row r="108">
@@ -2625,10 +2625,10 @@
         <v>2070</v>
       </c>
       <c r="D108">
-        <v>2.30727607297</v>
+        <v>2.307273772816</v>
       </c>
       <c r="E108">
-        <v>19.55896969922812</v>
+        <v>19.55895434927581</v>
       </c>
     </row>
     <row r="109">
@@ -2775,7 +2775,7 @@
         <v>0.5595227</v>
       </c>
       <c r="E115">
-        <v>25.20543789267521</v>
+        <v>25.20544119325931</v>
       </c>
     </row>
     <row r="116">
@@ -2793,10 +2793,10 @@
         <v>2030</v>
       </c>
       <c r="D116">
-        <v>0.7490034</v>
+        <v>0.7490074</v>
       </c>
       <c r="E116">
-        <v>24.91602141062416</v>
+        <v>24.91615311617644</v>
       </c>
     </row>
     <row r="117">
@@ -2814,10 +2814,10 @@
         <v>2035</v>
       </c>
       <c r="D117">
-        <v>0.9745515</v>
+        <v>0.9745545</v>
       </c>
       <c r="E117">
-        <v>24.69675295823045</v>
+        <v>24.69683499684605</v>
       </c>
     </row>
     <row r="118">
@@ -2838,7 +2838,7 @@
         <v>1.2243587</v>
       </c>
       <c r="E118">
-        <v>24.51512810949278</v>
+        <v>24.51513207837022</v>
       </c>
     </row>
     <row r="119">
@@ -2856,10 +2856,10 @@
         <v>2045</v>
       </c>
       <c r="D119">
-        <v>1.4965602</v>
+        <v>1.4965623</v>
       </c>
       <c r="E119">
-        <v>24.38852034423987</v>
+        <v>24.38856162893394</v>
       </c>
     </row>
     <row r="120">
@@ -2877,10 +2877,10 @@
         <v>2050</v>
       </c>
       <c r="D120">
-        <v>1.7798296</v>
+        <v>1.7798286</v>
       </c>
       <c r="E120">
-        <v>24.25763052250054</v>
+        <v>24.25760843505876</v>
       </c>
     </row>
     <row r="121">
@@ -2898,10 +2898,10 @@
         <v>2055</v>
       </c>
       <c r="D121">
-        <v>2.0817408</v>
+        <v>2.081743</v>
       </c>
       <c r="E121">
-        <v>24.28833467145383</v>
+        <v>24.28835625953033</v>
       </c>
     </row>
     <row r="122">
@@ -2919,10 +2919,10 @@
         <v>2060</v>
       </c>
       <c r="D122">
-        <v>2.3603077</v>
+        <v>2.3603098</v>
       </c>
       <c r="E122">
-        <v>24.31317630675248</v>
+        <v>24.31320468887013</v>
       </c>
     </row>
     <row r="123">
@@ -2940,10 +2940,10 @@
         <v>2065</v>
       </c>
       <c r="D123">
-        <v>2.6121485</v>
+        <v>2.6121508</v>
       </c>
       <c r="E123">
-        <v>24.33467692879909</v>
+        <v>24.33469803155192</v>
       </c>
     </row>
     <row r="124">
@@ -2961,10 +2961,10 @@
         <v>2070</v>
       </c>
       <c r="D124">
-        <v>2.8341703</v>
+        <v>2.8341715</v>
       </c>
       <c r="E124">
-        <v>24.02549554843541</v>
+        <v>24.02551081697717</v>
       </c>
     </row>
     <row r="125">
@@ -3108,10 +3108,10 @@
         <v>2025</v>
       </c>
       <c r="D131">
-        <v>0.36469567551</v>
+        <v>0.36469547551</v>
       </c>
       <c r="E131">
-        <v>16.42884944398956</v>
+        <v>16.4288425856807</v>
       </c>
     </row>
     <row r="132">
@@ -3129,10 +3129,10 @@
         <v>2030</v>
       </c>
       <c r="D132">
-        <v>0.5573411620000001</v>
+        <v>0.557340352</v>
       </c>
       <c r="E132">
-        <v>18.54026874299122</v>
+        <v>18.54024078834958</v>
       </c>
     </row>
     <row r="133">
@@ -3150,10 +3150,10 @@
         <v>2035</v>
       </c>
       <c r="D133">
-        <v>0.7261291599700001</v>
+        <v>0.72612775997</v>
       </c>
       <c r="E133">
-        <v>18.40131843165445</v>
+        <v>18.40128743401064</v>
       </c>
     </row>
     <row r="134">
@@ -3171,10 +3171,10 @@
         <v>2040</v>
       </c>
       <c r="D134">
-        <v>0.9112027286400001</v>
+        <v>0.91120302864</v>
       </c>
       <c r="E134">
-        <v>18.24485881982869</v>
+        <v>18.24486778043115</v>
       </c>
     </row>
     <row r="135">
@@ -3192,10 +3192,10 @@
         <v>2045</v>
       </c>
       <c r="D135">
-        <v>1.1066424686</v>
+        <v>1.1066408686</v>
       </c>
       <c r="E135">
-        <v>18.03427109664611</v>
+        <v>18.03425024467614</v>
       </c>
     </row>
     <row r="136">
@@ -3213,10 +3213,10 @@
         <v>2050</v>
       </c>
       <c r="D136">
-        <v>1.3095699936</v>
+        <v>1.3095763936</v>
       </c>
       <c r="E136">
-        <v>17.84837438825728</v>
+        <v>17.84845539157264</v>
       </c>
     </row>
     <row r="137">
@@ -3234,10 +3234,10 @@
         <v>2055</v>
       </c>
       <c r="D137">
-        <v>1.5234415379</v>
+        <v>1.5234435379</v>
       </c>
       <c r="E137">
-        <v>17.7744789000194</v>
+        <v>17.77449924884796</v>
       </c>
     </row>
     <row r="138">
@@ -3255,10 +3255,10 @@
         <v>2060</v>
       </c>
       <c r="D138">
-        <v>1.720532447</v>
+        <v>1.720524447</v>
       </c>
       <c r="E138">
-        <v>17.72294719260513</v>
+        <v>17.72286970639028</v>
       </c>
     </row>
     <row r="139">
@@ -3276,10 +3276,10 @@
         <v>2065</v>
       </c>
       <c r="D139">
-        <v>1.893693484</v>
+        <v>1.893696684</v>
       </c>
       <c r="E139">
-        <v>17.64157709077871</v>
+        <v>17.64160666700069</v>
       </c>
     </row>
     <row r="140">
@@ -3297,10 +3297,10 @@
         <v>2070</v>
       </c>
       <c r="D140">
-        <v>2.0636046385</v>
+        <v>2.0636037385</v>
       </c>
       <c r="E140">
-        <v>17.4933468380543</v>
+        <v>17.49334291918689</v>
       </c>
     </row>
     <row r="141">
@@ -3447,7 +3447,7 @@
         <v>0.44339394</v>
       </c>
       <c r="E147">
-        <v>19.97405720386065</v>
+        <v>19.97405981940955</v>
       </c>
     </row>
     <row r="148">
@@ -3468,7 +3468,7 @@
         <v>0.5855163</v>
       </c>
       <c r="E148">
-        <v>19.47753063212989</v>
+        <v>19.47752957155977</v>
       </c>
     </row>
     <row r="149">
@@ -3486,10 +3486,10 @@
         <v>2035</v>
       </c>
       <c r="D149">
-        <v>0.750784</v>
+        <v>0.7507839</v>
       </c>
       <c r="E149">
-        <v>19.02611300992517</v>
+        <v>19.02611510858404</v>
       </c>
     </row>
     <row r="150">
@@ -3507,10 +3507,10 @@
         <v>2040</v>
       </c>
       <c r="D150">
-        <v>0.9302802</v>
+        <v>0.93028</v>
       </c>
       <c r="E150">
-        <v>18.62684381686883</v>
+        <v>18.62684282789533</v>
       </c>
     </row>
     <row r="151">
@@ -3528,10 +3528,10 @@
         <v>2045</v>
       </c>
       <c r="D151">
-        <v>1.1205361</v>
+        <v>1.1205357</v>
       </c>
       <c r="E151">
-        <v>18.26068705509153</v>
+        <v>18.26068582435268</v>
       </c>
     </row>
     <row r="152">
@@ -3549,10 +3549,10 @@
         <v>2050</v>
       </c>
       <c r="D152">
-        <v>1.3151276</v>
+        <v>1.315126</v>
       </c>
       <c r="E152">
-        <v>17.92412004539249</v>
+        <v>17.92409198883819</v>
       </c>
     </row>
     <row r="153">
@@ -3570,10 +3570,10 @@
         <v>2055</v>
       </c>
       <c r="D153">
-        <v>1.5101386</v>
+        <v>1.5101368</v>
       </c>
       <c r="E153">
-        <v>17.61926927554129</v>
+        <v>17.61924531463639</v>
       </c>
     </row>
     <row r="154">
@@ -3591,10 +3591,10 @@
         <v>2060</v>
       </c>
       <c r="D154">
-        <v>1.6827558</v>
+        <v>1.6827541</v>
       </c>
       <c r="E154">
-        <v>17.33381560658821</v>
+        <v>17.33380290770959</v>
       </c>
     </row>
     <row r="155">
@@ -3612,10 +3612,10 @@
         <v>2065</v>
       </c>
       <c r="D155">
-        <v>1.832624</v>
+        <v>1.8326227</v>
       </c>
       <c r="E155">
-        <v>17.07265608060319</v>
+        <v>17.07264374256928</v>
       </c>
     </row>
     <row r="156">
@@ -3633,10 +3633,10 @@
         <v>2070</v>
       </c>
       <c r="D156">
-        <v>1.9925166</v>
+        <v>1.9925156</v>
       </c>
       <c r="E156">
-        <v>16.89072766851154</v>
+        <v>16.89072277411433</v>
       </c>
     </row>
     <row r="157">
@@ -3675,10 +3675,10 @@
         <v>2025</v>
       </c>
       <c r="D158">
-        <v>0.01124115577823</v>
+        <v>0.01124086505511</v>
       </c>
       <c r="E158">
-        <v>0.5063927769330241</v>
+        <v>0.5063797467161542</v>
       </c>
     </row>
     <row r="159">
@@ -3696,10 +3696,10 @@
         <v>2030</v>
       </c>
       <c r="D159">
-        <v>0.02805581197413</v>
+        <v>0.02805269563688</v>
       </c>
       <c r="E159">
-        <v>0.9332924414493562</v>
+        <v>0.9331887239164749</v>
       </c>
     </row>
     <row r="160">
@@ -3717,10 +3717,10 @@
         <v>2035</v>
       </c>
       <c r="D160">
-        <v>0.0511472972564</v>
+        <v>0.0511449092151</v>
       </c>
       <c r="E160">
-        <v>1.296157427106201</v>
+        <v>1.296097225772387</v>
       </c>
     </row>
     <row r="161">
@@ -3738,10 +3738,10 @@
         <v>2040</v>
       </c>
       <c r="D161">
-        <v>0.0807742704117</v>
+        <v>0.0807741280117</v>
       </c>
       <c r="E161">
-        <v>1.617329616797461</v>
+        <v>1.617327027383405</v>
       </c>
     </row>
     <row r="162">
@@ -3759,10 +3759,10 @@
         <v>2045</v>
       </c>
       <c r="D162">
-        <v>0.118064884577</v>
+        <v>0.1180636914669</v>
       </c>
       <c r="E162">
-        <v>1.92403074693988</v>
+        <v>1.924011860702313</v>
       </c>
     </row>
     <row r="163">
@@ -3780,10 +3780,10 @@
         <v>2050</v>
       </c>
       <c r="D163">
-        <v>0.1613455816567</v>
+        <v>0.1613454676466</v>
       </c>
       <c r="E163">
-        <v>2.199009110909364</v>
+        <v>2.199006790284561</v>
       </c>
     </row>
     <row r="164">
@@ -3801,10 +3801,10 @@
         <v>2055</v>
       </c>
       <c r="D164">
-        <v>0.1892972539282</v>
+        <v>0.1892971039192</v>
       </c>
       <c r="E164">
-        <v>2.208591509469045</v>
+        <v>2.208589388261118</v>
       </c>
     </row>
     <row r="165">
@@ -3822,10 +3822,10 @@
         <v>2060</v>
       </c>
       <c r="D165">
-        <v>0.2152550821236</v>
+        <v>0.2152548691246</v>
       </c>
       <c r="E165">
-        <v>2.217310379742256</v>
+        <v>2.21730880128632</v>
       </c>
     </row>
     <row r="166">
@@ -3843,10 +3843,10 @@
         <v>2065</v>
       </c>
       <c r="D166">
-        <v>0.2389650126979</v>
+        <v>0.2389648436979</v>
       </c>
       <c r="E166">
-        <v>2.226189047555975</v>
+        <v>2.22618744352179</v>
       </c>
     </row>
     <row r="167">
@@ -3864,10 +3864,10 @@
         <v>2070</v>
       </c>
       <c r="D167">
-        <v>0.2638884280671</v>
+        <v>0.2638887190672</v>
       </c>
       <c r="E167">
-        <v>2.23700398448524</v>
+        <v>2.237006925807865</v>
       </c>
     </row>
     <row r="168">
@@ -4011,10 +4011,10 @@
         <v>2025</v>
       </c>
       <c r="D174">
-        <v>0.5107411321100001</v>
+        <v>0.51074134215</v>
       </c>
       <c r="E174">
-        <v>23.00792065207226</v>
+        <v>23.00793312680282</v>
       </c>
     </row>
     <row r="175">
@@ -4032,10 +4032,10 @@
         <v>2030</v>
       </c>
       <c r="D175">
-        <v>0.6189659351</v>
+        <v>0.61896605512</v>
       </c>
       <c r="E175">
-        <v>20.590251648255</v>
+        <v>20.59025451962908</v>
       </c>
     </row>
     <row r="176">
@@ -4053,10 +4053,10 @@
         <v>2035</v>
       </c>
       <c r="D176">
-        <v>0.80578944871</v>
+        <v>0.8057894758999999</v>
       </c>
       <c r="E176">
-        <v>20.42004240016005</v>
+        <v>20.42004806144485</v>
       </c>
     </row>
     <row r="177">
@@ -4074,10 +4074,10 @@
         <v>2040</v>
       </c>
       <c r="D177">
-        <v>1.01239701236</v>
+        <v>1.01239654622</v>
       </c>
       <c r="E177">
-        <v>20.27105492505843</v>
+        <v>20.27104887339727</v>
       </c>
     </row>
     <row r="178">
@@ -4095,10 +4095,10 @@
         <v>2045</v>
       </c>
       <c r="D178">
-        <v>1.23555595319</v>
+        <v>1.23555546939</v>
       </c>
       <c r="E178">
-        <v>20.13509479994255</v>
+        <v>20.13509274634569</v>
       </c>
     </row>
     <row r="179">
@@ -4116,10 +4116,10 @@
         <v>2050</v>
       </c>
       <c r="D179">
-        <v>1.4691489273</v>
+        <v>1.4691479997</v>
       </c>
       <c r="E179">
-        <v>20.02330552372621</v>
+        <v>20.02328589948067</v>
       </c>
     </row>
     <row r="180">
@@ -4137,10 +4137,10 @@
         <v>2055</v>
       </c>
       <c r="D180">
-        <v>1.706907892</v>
+        <v>1.7069074818</v>
       </c>
       <c r="E180">
-        <v>19.91503943922402</v>
+        <v>19.91503130790697</v>
       </c>
     </row>
     <row r="181">
@@ -4158,10 +4158,10 @@
         <v>2060</v>
       </c>
       <c r="D181">
-        <v>1.9222923992</v>
+        <v>1.9222801164</v>
       </c>
       <c r="E181">
-        <v>19.8012462590703</v>
+        <v>19.80112523338178</v>
       </c>
     </row>
     <row r="182">
@@ -4179,10 +4179,10 @@
         <v>2065</v>
       </c>
       <c r="D182">
-        <v>2.1154756987</v>
+        <v>2.1154604105</v>
       </c>
       <c r="E182">
-        <v>19.70769184010404</v>
+        <v>19.70754915344871</v>
       </c>
     </row>
     <row r="183">
@@ -4200,10 +4200,10 @@
         <v>2070</v>
       </c>
       <c r="D183">
-        <v>2.3350552719</v>
+        <v>2.3350554789</v>
       </c>
       <c r="E183">
-        <v>19.79445626128539</v>
+        <v>19.79446221463795</v>
       </c>
     </row>
   </sheetData>
